--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema7a-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema7a-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.98780833333333</v>
+        <v>52.47114533333334</v>
       </c>
       <c r="H2">
-        <v>131.963425</v>
+        <v>157.413436</v>
       </c>
       <c r="I2">
-        <v>0.6316313406953905</v>
+        <v>0.6809868250592768</v>
       </c>
       <c r="J2">
-        <v>0.6316313406953904</v>
+        <v>0.6809868250592767</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>7201.331432712144</v>
+        <v>8368.28911280596</v>
       </c>
       <c r="R2">
-        <v>64811.9828944093</v>
+        <v>75314.60201525364</v>
       </c>
       <c r="S2">
-        <v>0.1739514646583576</v>
+        <v>0.2031577838214284</v>
       </c>
       <c r="T2">
-        <v>0.1739514646583575</v>
+        <v>0.2031577838214283</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.98780833333333</v>
+        <v>52.47114533333334</v>
       </c>
       <c r="H3">
-        <v>131.963425</v>
+        <v>157.413436</v>
       </c>
       <c r="I3">
-        <v>0.6316313406953905</v>
+        <v>0.6809868250592768</v>
       </c>
       <c r="J3">
-        <v>0.6316313406953904</v>
+        <v>0.6809868250592767</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>7590.470092324074</v>
+        <v>9054.341974588564</v>
       </c>
       <c r="R3">
-        <v>68314.23083091667</v>
+        <v>81489.07777129707</v>
       </c>
       <c r="S3">
-        <v>0.1833512875143363</v>
+        <v>0.2198131571128236</v>
       </c>
       <c r="T3">
-        <v>0.1833512875143362</v>
+        <v>0.2198131571128236</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.98780833333333</v>
+        <v>52.47114533333334</v>
       </c>
       <c r="H4">
-        <v>131.963425</v>
+        <v>157.413436</v>
       </c>
       <c r="I4">
-        <v>0.6316313406953905</v>
+        <v>0.6809868250592768</v>
       </c>
       <c r="J4">
-        <v>0.6316313406953904</v>
+        <v>0.6809868250592767</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>4904.120004129836</v>
+        <v>3903.20811504889</v>
       </c>
       <c r="R4">
-        <v>44137.08003716853</v>
+        <v>35128.87303544002</v>
       </c>
       <c r="S4">
-        <v>0.1184612686625717</v>
+        <v>0.09475857009214378</v>
       </c>
       <c r="T4">
-        <v>0.1184612686625717</v>
+        <v>0.09475857009214378</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>43.98780833333333</v>
+        <v>52.47114533333334</v>
       </c>
       <c r="H5">
-        <v>131.963425</v>
+        <v>157.413436</v>
       </c>
       <c r="I5">
-        <v>0.6316313406953905</v>
+        <v>0.6809868250592768</v>
       </c>
       <c r="J5">
-        <v>0.6316313406953904</v>
+        <v>0.6809868250592767</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>2627.583725220361</v>
+        <v>3065.08171827495</v>
       </c>
       <c r="R5">
-        <v>23648.25352698325</v>
+        <v>27585.73546447455</v>
       </c>
       <c r="S5">
-        <v>0.06347049039269174</v>
+        <v>0.07441129252613971</v>
       </c>
       <c r="T5">
-        <v>0.06347049039269173</v>
+        <v>0.07441129252613971</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>43.98780833333333</v>
+        <v>52.47114533333334</v>
       </c>
       <c r="H6">
-        <v>131.963425</v>
+        <v>157.413436</v>
       </c>
       <c r="I6">
-        <v>0.6316313406953905</v>
+        <v>0.6809868250592768</v>
       </c>
       <c r="J6">
-        <v>0.6316313406953904</v>
+        <v>0.6809868250592767</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>3825.091059932053</v>
+        <v>3659.663836186059</v>
       </c>
       <c r="R6">
-        <v>34425.81953938847</v>
+        <v>32936.97452567454</v>
       </c>
       <c r="S6">
-        <v>0.09239682946743318</v>
+        <v>0.0888460215067412</v>
       </c>
       <c r="T6">
-        <v>0.09239682946743315</v>
+        <v>0.0888460215067412</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>63.84983200000001</v>
       </c>
       <c r="I7">
-        <v>0.3056116116214432</v>
+        <v>0.2762209851911765</v>
       </c>
       <c r="J7">
-        <v>0.3056116116214432</v>
+        <v>0.2762209851911764</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>3484.327586639933</v>
+        <v>3394.334483494088</v>
       </c>
       <c r="R7">
-        <v>31358.94827975939</v>
+        <v>30549.01035144679</v>
       </c>
       <c r="S7">
-        <v>0.084165531431077</v>
+        <v>0.08240459452578443</v>
       </c>
       <c r="T7">
-        <v>0.08416553143107697</v>
+        <v>0.08240459452578441</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>63.84983200000001</v>
       </c>
       <c r="I8">
-        <v>0.3056116116214432</v>
+        <v>0.2762209851911765</v>
       </c>
       <c r="J8">
-        <v>0.3056116116214432</v>
+        <v>0.2762209851911764</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
         <v>3672.610347874168</v>
@@ -948,10 +948,10 @@
         <v>33053.49313086751</v>
       </c>
       <c r="S8">
-        <v>0.08871358791099937</v>
+        <v>0.0891603252535787</v>
       </c>
       <c r="T8">
-        <v>0.08871358791099934</v>
+        <v>0.08916032525357868</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>63.84983200000001</v>
       </c>
       <c r="I9">
-        <v>0.3056116116214432</v>
+        <v>0.2762209851911765</v>
       </c>
       <c r="J9">
-        <v>0.3056116116214432</v>
+        <v>0.2762209851911764</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>2372.833520890575</v>
+        <v>1583.214169894038</v>
       </c>
       <c r="R9">
-        <v>21355.50168801518</v>
+        <v>14248.92752904634</v>
       </c>
       <c r="S9">
-        <v>0.05731688233017648</v>
+        <v>0.03843584724841153</v>
       </c>
       <c r="T9">
-        <v>0.05731688233017647</v>
+        <v>0.03843584724841153</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>63.84983200000001</v>
       </c>
       <c r="I10">
-        <v>0.3056116116214432</v>
+        <v>0.2762209851911765</v>
       </c>
       <c r="J10">
-        <v>0.3056116116214432</v>
+        <v>0.2762209851911764</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>1271.343021153431</v>
+        <v>1243.254437176042</v>
       </c>
       <c r="R10">
-        <v>11442.08719038088</v>
+        <v>11189.28993458438</v>
       </c>
       <c r="S10">
-        <v>0.03070987395584028</v>
+        <v>0.03018261113807894</v>
       </c>
       <c r="T10">
-        <v>0.03070987395584027</v>
+        <v>0.03018261113807894</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>63.84983200000001</v>
       </c>
       <c r="I11">
-        <v>0.3056116116214432</v>
+        <v>0.2762209851911765</v>
       </c>
       <c r="J11">
-        <v>0.3056116116214432</v>
+        <v>0.2762209851911764</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>1850.750854347434</v>
+        <v>1484.428058078571</v>
       </c>
       <c r="R11">
-        <v>16656.75768912691</v>
+        <v>13359.85252270714</v>
       </c>
       <c r="S11">
-        <v>0.04470573599335011</v>
+        <v>0.03603760702532287</v>
       </c>
       <c r="T11">
-        <v>0.0447057359933501</v>
+        <v>0.03603760702532287</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.01809766666666666</v>
+        <v>0.2844766666666667</v>
       </c>
       <c r="H12">
-        <v>0.05429299999999999</v>
+        <v>0.85343</v>
       </c>
       <c r="I12">
-        <v>0.0002598686748269442</v>
+        <v>0.003692026556807631</v>
       </c>
       <c r="J12">
-        <v>0.0002598686748269441</v>
+        <v>0.003692026556807631</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>2.962804939900888</v>
+        <v>45.36937353646223</v>
       </c>
       <c r="R12">
-        <v>26.665244459108</v>
+        <v>408.32436182816</v>
       </c>
       <c r="S12">
-        <v>7.156791262955026E-05</v>
+        <v>0.001101436775998725</v>
       </c>
       <c r="T12">
-        <v>7.156791262955023E-05</v>
+        <v>0.001101436775998724</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.01809766666666666</v>
+        <v>0.2844766666666667</v>
       </c>
       <c r="H13">
-        <v>0.05429299999999999</v>
+        <v>0.85343</v>
       </c>
       <c r="I13">
-        <v>0.0002598686748269442</v>
+        <v>0.003692026556807631</v>
       </c>
       <c r="J13">
-        <v>0.0002598686748269441</v>
+        <v>0.003692026556807631</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>3.122906159207</v>
+        <v>49.08886603156999</v>
       </c>
       <c r="R13">
-        <v>28.10615543286299</v>
+        <v>441.79979428413</v>
       </c>
       <c r="S13">
-        <v>7.543523103477998E-05</v>
+        <v>0.001191735263785215</v>
       </c>
       <c r="T13">
-        <v>7.543523103477996E-05</v>
+        <v>0.001191735263785215</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.01809766666666666</v>
+        <v>0.2844766666666667</v>
       </c>
       <c r="H14">
-        <v>0.05429299999999999</v>
+        <v>0.85343</v>
       </c>
       <c r="I14">
-        <v>0.0002598686748269442</v>
+        <v>0.003692026556807631</v>
       </c>
       <c r="J14">
-        <v>0.0002598686748269441</v>
+        <v>0.003692026556807631</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>2.017675635383222</v>
+        <v>21.16156654903444</v>
       </c>
       <c r="R14">
-        <v>18.159080718449</v>
+        <v>190.45409894131</v>
       </c>
       <c r="S14">
-        <v>4.873788066274428E-05</v>
+        <v>0.0005137414475454195</v>
       </c>
       <c r="T14">
-        <v>4.873788066274427E-05</v>
+        <v>0.0005137414475454195</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.01809766666666666</v>
+        <v>0.2844766666666667</v>
       </c>
       <c r="H15">
-        <v>0.05429299999999999</v>
+        <v>0.85343</v>
       </c>
       <c r="I15">
-        <v>0.0002598686748269442</v>
+        <v>0.003692026556807631</v>
       </c>
       <c r="J15">
-        <v>0.0002598686748269441</v>
+        <v>0.003692026556807631</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>1.081052596152222</v>
+        <v>16.61759477016555</v>
       </c>
       <c r="R15">
-        <v>9.729473365369998</v>
+        <v>149.55835293149</v>
       </c>
       <c r="S15">
-        <v>2.611332143652996E-05</v>
+        <v>0.0004034269945075298</v>
       </c>
       <c r="T15">
-        <v>2.611332143652995E-05</v>
+        <v>0.0004034269945075298</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.01809766666666666</v>
+        <v>0.2844766666666667</v>
       </c>
       <c r="H16">
-        <v>0.05429299999999999</v>
+        <v>0.85343</v>
       </c>
       <c r="I16">
-        <v>0.0002598686748269442</v>
+        <v>0.003692026556807631</v>
       </c>
       <c r="J16">
-        <v>0.0002598686748269441</v>
+        <v>0.003692026556807631</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N16">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O16">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P16">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q16">
-        <v>1.573736578274555</v>
+        <v>19.84117104029333</v>
       </c>
       <c r="R16">
-        <v>14.163629204471</v>
+        <v>178.57053936264</v>
       </c>
       <c r="S16">
-        <v>3.801432906333971E-05</v>
+        <v>0.0004816860749707422</v>
       </c>
       <c r="T16">
-        <v>3.801432906333969E-05</v>
+        <v>0.0004816860749707422</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.321727666666667</v>
+        <v>2.885791333333333</v>
       </c>
       <c r="H17">
-        <v>12.965183</v>
+        <v>8.657373999999999</v>
       </c>
       <c r="I17">
-        <v>0.06205670943029166</v>
+        <v>0.03745269643698477</v>
       </c>
       <c r="J17">
-        <v>0.06205670943029164</v>
+        <v>0.03745269643698476</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N17">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O17">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P17">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q17">
-        <v>707.5186163799942</v>
+        <v>460.2364984250098</v>
       </c>
       <c r="R17">
-        <v>6367.667547419947</v>
+        <v>4142.128485825087</v>
       </c>
       <c r="S17">
-        <v>0.01709043678135543</v>
+        <v>0.01117320706698286</v>
       </c>
       <c r="T17">
-        <v>0.01709043678135543</v>
+        <v>0.01117320706698286</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.321727666666667</v>
+        <v>2.885791333333333</v>
       </c>
       <c r="H18">
-        <v>12.965183</v>
+        <v>8.657373999999999</v>
       </c>
       <c r="I18">
-        <v>0.06205670943029166</v>
+        <v>0.03745269643698477</v>
       </c>
       <c r="J18">
-        <v>0.06205670943029164</v>
+        <v>0.03745269643698476</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q18">
-        <v>745.750830603317</v>
+        <v>497.9678151356259</v>
       </c>
       <c r="R18">
-        <v>6711.757475429852</v>
+        <v>4481.710336220634</v>
       </c>
       <c r="S18">
-        <v>0.01801395345648982</v>
+        <v>0.01208921398073335</v>
       </c>
       <c r="T18">
-        <v>0.01801395345648981</v>
+        <v>0.01208921398073335</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.321727666666667</v>
+        <v>2.885791333333333</v>
       </c>
       <c r="H19">
-        <v>12.965183</v>
+        <v>8.657373999999999</v>
       </c>
       <c r="I19">
-        <v>0.06205670943029166</v>
+        <v>0.03745269643698477</v>
       </c>
       <c r="J19">
-        <v>0.06205670943029164</v>
+        <v>0.03745269643698476</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N19">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q19">
-        <v>481.8214843052465</v>
+        <v>214.6673963194175</v>
       </c>
       <c r="R19">
-        <v>4336.393358747219</v>
+        <v>1932.006566874758</v>
       </c>
       <c r="S19">
-        <v>0.0116386190084291</v>
+        <v>0.005211501647120535</v>
       </c>
       <c r="T19">
-        <v>0.01163861900842909</v>
+        <v>0.005211501647120535</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.321727666666667</v>
+        <v>2.885791333333333</v>
       </c>
       <c r="H20">
-        <v>12.965183</v>
+        <v>8.657373999999999</v>
       </c>
       <c r="I20">
-        <v>0.06205670943029166</v>
+        <v>0.03745269643698477</v>
       </c>
       <c r="J20">
-        <v>0.06205670943029164</v>
+        <v>0.03745269643698476</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N20">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q20">
-        <v>258.1556506683855</v>
+        <v>168.5723877831424</v>
       </c>
       <c r="R20">
-        <v>2323.40085601547</v>
+        <v>1517.151490048282</v>
       </c>
       <c r="S20">
-        <v>0.006235868181209987</v>
+        <v>0.004092448558344131</v>
       </c>
       <c r="T20">
-        <v>0.006235868181209983</v>
+        <v>0.004092448558344131</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.321727666666667</v>
+        <v>2.885791333333333</v>
       </c>
       <c r="H21">
-        <v>12.965183</v>
+        <v>8.657373999999999</v>
       </c>
       <c r="I21">
-        <v>0.06205670943029166</v>
+        <v>0.03745269643698477</v>
       </c>
       <c r="J21">
-        <v>0.06205670943029164</v>
+        <v>0.03745269643698476</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N21">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O21">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P21">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q21">
-        <v>375.8087180874779</v>
+        <v>201.2730256655947</v>
       </c>
       <c r="R21">
-        <v>3382.278462787301</v>
+        <v>1811.457230990352</v>
       </c>
       <c r="S21">
-        <v>0.009077832002807321</v>
+        <v>0.00488632518380389</v>
       </c>
       <c r="T21">
-        <v>0.009077832002807318</v>
+        <v>0.00488632518380389</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.030675</v>
+        <v>0.12694</v>
       </c>
       <c r="H22">
-        <v>0.092025</v>
+        <v>0.38082</v>
       </c>
       <c r="I22">
-        <v>0.0004404695780478061</v>
+        <v>0.001647466755754405</v>
       </c>
       <c r="J22">
-        <v>0.000440469578047806</v>
+        <v>0.001647466755754405</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N22">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O22">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P22">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q22">
-        <v>5.021865150099999</v>
+        <v>20.24485292309333</v>
       </c>
       <c r="R22">
-        <v>45.19678635089999</v>
+        <v>182.20367630784</v>
       </c>
       <c r="S22">
-        <v>0.0001213054566838149</v>
+        <v>0.0004914863000314429</v>
       </c>
       <c r="T22">
-        <v>0.0001213054566838149</v>
+        <v>0.0004914863000314428</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.030675</v>
+        <v>0.12694</v>
       </c>
       <c r="H23">
-        <v>0.092025</v>
+        <v>0.38082</v>
       </c>
       <c r="I23">
-        <v>0.0004404695780478061</v>
+        <v>0.001647466755754405</v>
       </c>
       <c r="J23">
-        <v>0.000440469578047806</v>
+        <v>0.001647466755754405</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q23">
-        <v>5.293231895475</v>
+        <v>21.90457560918</v>
       </c>
       <c r="R23">
-        <v>47.63908705927499</v>
+        <v>197.14118048262</v>
       </c>
       <c r="S23">
-        <v>0.0001278604449187856</v>
+        <v>0.0005317795521070101</v>
       </c>
       <c r="T23">
-        <v>0.0001278604449187856</v>
+        <v>0.00053177955210701</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.030675</v>
+        <v>0.12694</v>
       </c>
       <c r="H24">
-        <v>0.092025</v>
+        <v>0.38082</v>
       </c>
       <c r="I24">
-        <v>0.0004404695780478061</v>
+        <v>0.001647466755754405</v>
       </c>
       <c r="J24">
-        <v>0.000440469578047806</v>
+        <v>0.001647466755754405</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N24">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q24">
-        <v>3.419899440925</v>
+        <v>9.442775357326665</v>
       </c>
       <c r="R24">
-        <v>30.779094968325</v>
+        <v>84.98497821594</v>
       </c>
       <c r="S24">
-        <v>8.260924001232281E-05</v>
+        <v>0.0002292431928268829</v>
       </c>
       <c r="T24">
-        <v>8.26092400123228E-05</v>
+        <v>0.0002292431928268829</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.030675</v>
+        <v>0.12694</v>
       </c>
       <c r="H25">
-        <v>0.092025</v>
+        <v>0.38082</v>
       </c>
       <c r="I25">
-        <v>0.0004404695780478061</v>
+        <v>0.001647466755754405</v>
       </c>
       <c r="J25">
-        <v>0.000440469578047806</v>
+        <v>0.001647466755754405</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N25">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q25">
-        <v>1.83235159525</v>
+        <v>7.415151143473333</v>
       </c>
       <c r="R25">
-        <v>16.49116435725</v>
+        <v>66.73636029126</v>
       </c>
       <c r="S25">
-        <v>4.42612934484495E-05</v>
+        <v>0.0001800183589144482</v>
       </c>
       <c r="T25">
-        <v>4.426129344844949E-05</v>
+        <v>0.0001800183589144482</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.030675</v>
+        <v>0.12694</v>
       </c>
       <c r="H26">
-        <v>0.092025</v>
+        <v>0.38082</v>
       </c>
       <c r="I26">
-        <v>0.0004404695780478061</v>
+        <v>0.001647466755754405</v>
       </c>
       <c r="J26">
-        <v>0.000440469578047806</v>
+        <v>0.001647466755754405</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N26">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O26">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P26">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q26">
-        <v>2.667436108075</v>
+        <v>8.853584659040001</v>
       </c>
       <c r="R26">
-        <v>24.006924972675</v>
+        <v>79.68226193136</v>
       </c>
       <c r="S26">
-        <v>6.443314298443328E-05</v>
+        <v>0.0002149393518746213</v>
       </c>
       <c r="T26">
-        <v>6.443314298443325E-05</v>
+        <v>0.0002149393518746213</v>
       </c>
     </row>
   </sheetData>
